--- a/Automationtesting1/src/main/java/Com_Automationtesting1_TestData/TestData.xlsx
+++ b/Automationtesting1/src/main/java/Com_Automationtesting1_TestData/TestData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{71DC460D-1A6B-46E7-801D-97D5F6664D66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="5895" xr2:uid="{0A00D638-BD89-4059-A024-7B5C6F2EA5CF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="5985"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>
@@ -38,13 +37,19 @@
   </si>
   <si>
     <t>pBorprg@81</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>parag borawake ‎(bparag)‎</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +61,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,8 +103,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -406,38 +419,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A00D1F-BD12-4479-B475-41A7353668D8}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{31E2FDB2-7A87-4C06-9B63-1CC594D4D1DD}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Automationtesting1/src/main/java/Com_Automationtesting1_TestData/TestData.xlsx
+++ b/Automationtesting1/src/main/java/Com_Automationtesting1_TestData/TestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="5985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="5985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:K7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -43,6 +44,12 @@
   </si>
   <si>
     <t>parag borawake ‎(bparag)‎</t>
+  </si>
+  <si>
+    <t>palani kumar</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -422,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -462,4 +469,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Automationtesting1/src/main/java/Com_Automationtesting1_TestData/TestData.xlsx
+++ b/Automationtesting1/src/main/java/Com_Automationtesting1_TestData/TestData.xlsx
@@ -3,20 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parag.borawake\git\Automationtesting1\Automationtesting1\src\main\java\Com_Automationtesting1_TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417D15AE-26AB-4EB5-9DAD-9F31AC4715EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D5F54D4E-43CA-4EC5-8B1F-2196A4BB71A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="5985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="HomePage" sheetId="2" r:id="rId2"/>
+    <sheet name="Sarch" sheetId="3" r:id="rId2"/>
+    <sheet name="HomePage" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -50,6 +47,12 @@
   </si>
   <si>
     <t>parag borawake (bparag)</t>
+  </si>
+  <si>
+    <t>palani.kumar</t>
+  </si>
+  <si>
+    <t>SearchInput</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -472,6 +475,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB21238-B019-4945-AFD7-3ADEBB949240}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/Automationtesting1/src/main/java/Com_Automationtesting1_TestData/TestData.xlsx
+++ b/Automationtesting1/src/main/java/Com_Automationtesting1_TestData/TestData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D5F54D4E-43CA-4EC5-8B1F-2196A4BB71A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="5985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="Sarch" sheetId="3" r:id="rId2"/>
-    <sheet name="HomePage" sheetId="2" r:id="rId3"/>
+    <sheet name="ScoreBoardPage" sheetId="4" r:id="rId3"/>
+    <sheet name="HomePage" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O17"/>
+  <oleSize ref="A1:K17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>UserName</t>
   </si>
@@ -53,13 +53,40 @@
   </si>
   <si>
     <t>SearchInput</t>
+  </si>
+  <si>
+    <t>RiskOf Loss</t>
+  </si>
+  <si>
+    <t>ImPactOFLoss</t>
+  </si>
+  <si>
+    <t>ReasonOf Leaving</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Mediun</t>
+  </si>
+  <si>
+    <t>Leaving Company Voluntarily</t>
+  </si>
+  <si>
+    <t>Likely to be Transferred</t>
+  </si>
+  <si>
+    <t>Likely to be Promoted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +109,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -111,10 +144,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -429,7 +463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -467,7 +501,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -475,10 +509,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB21238-B019-4945-AFD7-3ADEBB949240}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -502,7 +538,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -540,7 +641,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Automationtesting1/src/main/java/Com_Automationtesting1_TestData/TestData.xlsx
+++ b/Automationtesting1/src/main/java/Com_Automationtesting1_TestData/TestData.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
